--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/资产总计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3255.28711</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8129.67722</v>
-      </c>
-      <c r="D2" t="n">
-        <v>984.51795</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.16426</v>
-      </c>
-      <c r="F2" t="n">
-        <v>736.66684</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8688.026680000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1808.44456</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2798.90297</v>
-      </c>
-      <c r="J2" t="n">
-        <v>973.72657</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2052.16141</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363.47919</v>
-      </c>
-      <c r="M2" t="n">
-        <v>516.00721</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4787.90265</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2866.65489</v>
-      </c>
-      <c r="P2" t="n">
-        <v>548.92598</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1758.77335</v>
-      </c>
-      <c r="R2" t="n">
-        <v>694.93949</v>
-      </c>
-      <c r="S2" t="n">
-        <v>401.52837</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1118.80969</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1973.82483</v>
-      </c>
-      <c r="V2" t="n">
-        <v>610.91117</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3868.5114</v>
-      </c>
-      <c r="X2" t="n">
-        <v>18626.94108</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7518.79283</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5260.19578</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>939.09748</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3785.90708</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4088.12125</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5917.00754</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1523.19329</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>126211.24</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2511.98779</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2545.62951</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6113.10791</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>669.14257</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1684.43166</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>3078.22136</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>2742.76913</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9228.25085</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>326.0034</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3321.38127</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8858.581679999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1076.77698</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.72111</v>
-      </c>
-      <c r="F3" t="n">
-        <v>810.33586</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9039.357599999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1531.20077</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3281.05488</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1114.45361</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2265.89884</v>
-      </c>
-      <c r="L3" t="n">
-        <v>397.73832</v>
-      </c>
-      <c r="M3" t="n">
-        <v>551.57184</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5027.39529</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3170.4665</v>
-      </c>
-      <c r="P3" t="n">
-        <v>555.0711</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1905.82492</v>
-      </c>
-      <c r="R3" t="n">
-        <v>757.99938</v>
-      </c>
-      <c r="S3" t="n">
-        <v>403.56015</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1160.94519</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2450.41426</v>
-      </c>
-      <c r="V3" t="n">
-        <v>621.5476</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4274.69491</v>
-      </c>
-      <c r="X3" t="n">
-        <v>20485.26555</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8469.6666</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5763.78018</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1005.98069</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3941.2195</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4240.20412</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6196.25745</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1662.08587</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>135403</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2709.75081</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2745.77727</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6298.79563</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>698.84267</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1798.90632</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>3128.84847</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2852.58676</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>9796.22581</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>341.16784</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3662.62237</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9879.164349999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1194.17411</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.70591</v>
-      </c>
-      <c r="F4" t="n">
-        <v>896.97091</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9723.28721</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1563.1031</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3693.60679</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1162.34932</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2538.00173</v>
-      </c>
-      <c r="L4" t="n">
-        <v>448.58656</v>
-      </c>
-      <c r="M4" t="n">
-        <v>629.90128</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5399.00806</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3383.35706</v>
-      </c>
-      <c r="P4" t="n">
-        <v>561.20759</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2078.56628</v>
-      </c>
-      <c r="R4" t="n">
-        <v>809.14791</v>
-      </c>
-      <c r="S4" t="n">
-        <v>407.31292</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1249.93265</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2567.03905</v>
-      </c>
-      <c r="V4" t="n">
-        <v>712.14129</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4815.32533</v>
-      </c>
-      <c r="X4" t="n">
-        <v>22304.4156</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9779.984930000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6238.41827</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1136.15791</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3874.88657</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4402.46663</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6680.46934</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1901.39566</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>146217.78</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2940.16784</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2991.50796</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6679.60043</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>727.5578400000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>2081.65139</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3414.48978</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2975.05898</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>9597.55515</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>392.12497</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
